--- a/BalanceSheet/BMRN_bal.xlsx
+++ b/BalanceSheet/BMRN_bal.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="15.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>1087491000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1065000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>1506000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>1380000000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>858000000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>754000000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>720792000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>731103000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>894854000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>1084308000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>1443376000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>1363073000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>1382795000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>1395968000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>1257099000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>727776000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>678055100.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>789677000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>1034848000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>503287000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>456853000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>592619000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>618330000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>681553000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>1008689000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>945192000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>666373000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>836618000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>887481000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>784723000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>379651000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>400561000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>401882000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>447805000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>426455000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>402586000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>232979000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>195092000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>224374000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>258920000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>396097000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>448000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>412000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>381000000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>396000000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>377000000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>402970000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>377150000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>393429000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>342633000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>384343000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>363566000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>318394000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>261365000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>251891000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>238338000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>230250000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>215280000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>215894000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>214158000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>180751000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>164959000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>148949000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>186083000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>175738000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>144472000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>121395000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>122282000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>110462000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>117822000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>124745000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>115063000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>120345000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>109066000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>117290000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>100750000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>105828000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>104839000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>107057000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>106606000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>12159000.0</v>
+        <v>713929000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-27012000.0</v>
+        <v>699000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-25592000.0</v>
+        <v>701000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-20706000.0</v>
+        <v>744000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-54983000.0</v>
+        <v>706000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
+        <v>680000000.0</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>609049000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>578736000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>534696000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>530871000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>508482000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>473356000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>468161000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>475775000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>457393000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>429831000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>384143000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>355126000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>347420000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>326556000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>296979000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>271683000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>262100000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>237532000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>222833000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>199452000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>204444000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>193498000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>176893000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>162605000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>148684000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>142296000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>135822000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>128695000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>120825000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>120125000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>124064000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>130118000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>115628000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>112299000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>91249000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>130000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>121000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>142000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>156000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>131000000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>126548000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>119779000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>93876000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>98403000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>71652000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>80072000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>71760000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>74036000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>83646000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>62875000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>60340000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>61708000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>68409000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>61945000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>58207000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>60378000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>115330000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>77558000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>84265000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>108524000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>56458000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>37268000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>41013000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>41707000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>28161000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>33526000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>35501000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>25509000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>54816000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>58073000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>50519000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>18638000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>39965000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>36286000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>2288766000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>2342000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>2739000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>2648000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>2116000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>1942000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>1859359000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>1806768000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>1916855000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>2056215000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>2407853000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>2280067000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>2241110000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>2207144000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>2050029000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>1458820000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>1352788000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>1421791000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>1666571000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>1105946000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>992790000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>1089639000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>1175589000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>1213929000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>1522728000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>1397640000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>1077819000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>1220227000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>1246410000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>1137418000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>713479000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>720920000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>723024000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>743431000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>719386000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>681534000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>513390000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>469802000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>487024000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>514111000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1022474000.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>1090000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>1073000000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>1068000000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>1069000000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>1070000000.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>969300000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>962970000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>951890000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>948682000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>924033000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>900480000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>895392000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>896700000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>878624000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>851097000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>824013000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>798768000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>729836000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>724494000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>716916000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>704207000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>604513000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>568051000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>538117000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>523516000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>486741000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>469862000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>437066000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>319316000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>285664000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>282002000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>281865000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>284473000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>273724000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>267374000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>264317000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>268971000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>266190000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>216496000.0</v>
       </c>
     </row>
@@ -990,120 +1012,123 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
+        <v>321127000.0</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>293000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>273000000.0</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>340000000.0</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>312000000.0</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>434000000.0</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>431804000.0</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>374965000.0</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>320000000.0</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>235864000.0</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>204883000.0</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>279988000.0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>313599000.0</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>385785000.0</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>416304000.0</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>482036000.0</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>533628000.0</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>572711000.0</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="T8" s="0" t="n">
         <v>362956000.0</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="U8" s="0" t="n">
         <v>201620000.0</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="V8" s="0" t="n">
         <v>314404000.0</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="W8" s="0" t="n">
         <v>425652000.0</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="X8" s="0" t="n">
         <v>514381000.0</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="Y8" s="0" t="n">
         <v>509627000.0</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Z8" s="0" t="n">
         <v>224810000.0</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <v>97856000.0</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <v>449143000.0</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <v>244588000.0</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AD8" s="0" t="n">
         <v>251928000.0</v>
       </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AE8" s="0" t="n">
         <v>268516000.0</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AF8" s="0" t="n">
         <v>148625000.0</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AG8" s="0" t="n">
         <v>124906000.0</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AH8" s="0" t="n">
         <v>124498000.0</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AI8" s="0" t="n">
         <v>117073000.0</v>
       </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AJ8" s="0" t="n">
         <v>107589000.0</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AK8" s="0" t="n">
         <v>123155000.0</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AL8" s="0" t="n">
         <v>55833000.0</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AM8" s="0" t="n">
         <v>94944000.0</v>
       </c>
-      <c r="AM8" s="0" t="n">
+      <c r="AN8" s="0" t="n">
         <v>146808000.0</v>
       </c>
-      <c r="AN8" s="0" t="n">
+      <c r="AO8" s="0" t="n">
         <v>154327000.0</v>
       </c>
     </row>
@@ -1114,120 +1139,123 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
+        <v>602102100.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>613000000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>623000000.0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>630000000.0</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>640000000.0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>654000000.0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>659888000.0</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>673671000.0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>683020000.0</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>688847000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>691726000.0</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>699334000.0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>706941000.0</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>714549000.0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>727996000.0</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>735604000.0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>743211000.0</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>750819000.0</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>758426000.0</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>766005000.0</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>1374271000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>881035000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>1123335000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>1126253000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>1129288000.0</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>210836000.0</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <v>214207000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>217303000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>219655000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>217405000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>220049000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>223409000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>226991000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>214523000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>217167000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>219810000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>222457000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>231820000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>152323000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>154791000.0</v>
       </c>
     </row>
@@ -1238,120 +1266,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>1429386000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>1432150000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>1396547000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>555137000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>539990000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>549422000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>525131000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>475554000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>467333000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>460952000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>429194000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>425380000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>407009000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>399095000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>484759000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>470961000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>458387000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>446786000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>288006000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>266182000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>243212000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>220191000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>146245000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>172545000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>163411000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>190974000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>150991000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>147143000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>144124000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>145234000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>238703000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>235400000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>226757000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>189303000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>229771000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>220593000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>221239000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>224677000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>229172000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>228400000.0</v>
       </c>
     </row>
@@ -1362,120 +1393,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>141198000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>77000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>54000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>62000000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>46000000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>41000000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>112646000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>99456000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>96300000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>36568000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>37565000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>39430000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>32666000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>29852000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>22985000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>21447000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>26580000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>32815000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>36443000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>23057000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>25400000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>408644000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>60790000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>58284000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>80332000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>54557000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>61532000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>46562000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>41545000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>156171000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>14010000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>14883000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>15158000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>19544000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>19739000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>20061000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>19849000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>15495000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>13559000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>12267000.0</v>
       </c>
     </row>
@@ -1486,120 +1520,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>3516287000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>3505801000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>3419111000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>2654544000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>2606592000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>2747896000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>2698769000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>2586616000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>2518543000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>2370913000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>2287401000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>2344612000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>2355607000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>2425981000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>2530668000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>2561145000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>2585819000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>2601899000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>2175667000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>1981358000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>2674203000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>2639729000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>2449264000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>2434760000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>2135958000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>1077739000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>1362614000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>1125458000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>1094318000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>1106642000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>907051000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>880600000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>875269000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>824916000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>847990000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>850993000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>783695000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>835907000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>808052000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>766281100.0</v>
       </c>
     </row>
@@ -1610,120 +1647,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>5805053000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>5848000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>6158000000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>5302000000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>4723000000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>4690000000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>4558128000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>4393384000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>4435398000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>4427128000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>4695254000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>4624679000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>4596717000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>4633125000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>4580697000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>4019965000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>3938607000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>4023690000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>3842238000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>3087304000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>3666993000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>3729368000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>3624853000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>3648689000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>3658686000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>2475379000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>2440433000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>2345685000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>2340728000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>2244060000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>1620530000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>1601520000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>1598293000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>1568347000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>1567376000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>1532527000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>1297085000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>1305709000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>1295076000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>1280392000.0</v>
       </c>
     </row>
@@ -1734,120 +1774,123 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-10851000.0</v>
+        <v>399225000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>18251000.0</v>
+        <v>191000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>308000.0</v>
+        <v>218000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-94733000.0</v>
+        <v>206000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>55342000.0</v>
+        <v>235000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
+        <v>241000000.0</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>483745000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>429502000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>412830000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>437290000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>378226000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>358732000.0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>346538000.0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>401921000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>364920000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>319210000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>272447000.0</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>370505000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>306129000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>292342000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>290562000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>392511000.0</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>296200000.0</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>256330000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>230212000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>231844000.0</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>206550000.0</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>166720000.0</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>156038000.0</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>183271000.0</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>167633000.0</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>142241000.0</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>144008000.0</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>147068000.0</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>111489000.0</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>96557000.0</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>96359000.0</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>94125000.0</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>83254000.0</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>82035000.0</v>
       </c>
     </row>
@@ -1857,26 +1900,26 @@
           <t>Current Part of Debt</t>
         </is>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>12000000.0</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>385000000.0</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>381000000.0</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>376000000.0</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>373000000.0</v>
       </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1892,45 +1935,45 @@
           <t/>
         </is>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L15" s="0" t="n">
         <v>374230000.0</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>369752000.0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>365326000.0</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>360949000.0</v>
       </c>
-      <c r="O15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="P15" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R15" s="0" t="n">
         <v>22495000.0</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>22478000.0</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>22460000.0</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>24420000.0</v>
       </c>
-      <c r="U15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="V15" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1991,29 +2034,34 @@
           <t/>
         </is>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AH15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI15" s="0" t="n">
         <v>23365000.0</v>
-      </c>
-      <c r="AI15" s="0" t="n">
-        <v>23440000.0</v>
       </c>
       <c r="AJ15" s="0" t="n">
         <v>23440000.0</v>
       </c>
       <c r="AK15" s="0" t="n">
+        <v>23440000.0</v>
+      </c>
+      <c r="AL15" s="0" t="n">
         <v>23455000.0</v>
       </c>
-      <c r="AL15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AM15" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AN15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO15" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2025,26 +2073,26 @@
           <t>Other current liabilities</t>
         </is>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>280000000.0</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>251000000.0</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>226000000.0</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>209000000.0</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>319000000.0</v>
       </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2206,6 +2254,11 @@
         </is>
       </c>
       <c r="AN16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO16" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2218,120 +2271,123 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>430035000.0</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>493000000.0</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>855000000.0</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>813000000.0</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>820000000.0</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>933000000.0</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>493745000.0</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>439428000.0</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>500986000.0</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>523241000.0</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>838660000.0</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>804950000.0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>773471000.0</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>816518000.0</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>417529000.0</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>374303000.0</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>340206000.0</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>439310000.0</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>377335000.0</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>364580000.0</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>388011000.0</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>445457000.0</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>390491000.0</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>347704000.0</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>305506000.0</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>235739000.0</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>206550000.0</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>166720000.0</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>156038000.0</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>183271000.0</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>167633000.0</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>142241000.0</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>144008000.0</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>170433000.0</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>134929000.0</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>119997000.0</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>119814000.0</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>94125000.0</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>83254000.0</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>82035000.0</v>
       </c>
     </row>
@@ -2342,7 +2398,7 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1120000000.0</v>
+        <v>1076127000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1120000000.0</v>
@@ -2351,111 +2407,114 @@
         <v>1120000000.0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>537000000.0</v>
+        <v>1120000000.0</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>537000000.0</v>
       </c>
       <c r="G18" s="0" t="n">
+        <v>537000000.0</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <v>843616000.0</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>839165000.0</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>834766000.0</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>830417000.0</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>826119000.0</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>821871000.0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>817672000.0</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>813521000.0</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>1166036000.0</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>676205000.0</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>668437000.0</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>660761000.0</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>653178000.0</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>645685000.0</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>668009000.0</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>662286000.0</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>667793000.0</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>661492000.0</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>655491000.0</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>642902000.0</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>656884000.0</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>650872000.0</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>661419000.0</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>655566000.0</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>78310000.0</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>109822000.0</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>109849000.0</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>324859000.0</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>324861000.0</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>324865000.0</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>324872000.0</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>348329000.0</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>348339000.0</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>377520000.0</v>
       </c>
     </row>
@@ -2465,25 +2524,25 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>-34708000.0</v>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-848335000.0</v>
+        <v>-1432000000.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-16467000.0</v>
+        <v>-1397000000.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>10603000.0</v>
+        <v>-555000000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-22980000.0</v>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-540000000.0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>-549000000.0</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
@@ -2550,14 +2609,16 @@
           <t/>
         </is>
       </c>
-      <c r="U19" s="0" t="n">
-        <v>143527000.0</v>
+      <c r="U19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="V19" s="0" t="n">
         <v>143527000.0</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>193202000.0</v>
+        <v>143527000.0</v>
       </c>
       <c r="X19" s="0" t="n">
         <v>193202000.0</v>
@@ -2565,10 +2626,8 @@
       <c r="Y19" s="0" t="n">
         <v>193202000.0</v>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Z19" s="0" t="n">
+        <v>193202000.0</v>
       </c>
       <c r="AA19" s="0" t="inlineStr">
         <is>
@@ -2590,20 +2649,20 @@
           <t/>
         </is>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AE19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF19" s="0" t="n">
         <v>37190000.0</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>37182000.0</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>37521000.0</v>
       </c>
-      <c r="AH19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AI19" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2619,15 +2678,20 @@
           <t/>
         </is>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AL19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM19" s="0" t="n">
         <v>37155000.0</v>
       </c>
-      <c r="AM19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO19" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2640,120 +2704,123 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>130000000.0</v>
+        <v>136881000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>130000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
+        <v>130000000.0</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>132000000.0</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>125000000.0</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>98000000.0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>146362000.0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>153837000.0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>163019000.0</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>105530000.0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>115530000.0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>112754000.0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>198571000.0</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>194423000.0</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>183570000.0</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>173878000.0</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>160877000.0</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>157344000.0</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>165917000.0</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>159463000.0</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>177210000.0</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>77251000.0</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>80727000.0</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>89334000.0</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>79032000.0</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>68844000.0</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>68557000.0</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>66124000.0</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>63150000.0</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>64182000.0</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>60911000.0</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>54017000.0</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>56763000.0</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>57292000.0</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>92392000.0</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>87239000.0</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>80449000.0</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>53052000.0</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>88944000.0</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>88532000.0</v>
       </c>
     </row>
@@ -2764,120 +2831,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>1213008000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>1249470000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>1249504000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>1252129000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>662409000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>635155000.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>989978000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>993002000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>997785000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>935947000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>941649000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>934625000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>1016243000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>1007944000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>1349606000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>850083000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>829314000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>818105000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>819095000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>805148000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>988746000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>883064000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>941722000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>944028000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>927725000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>711746000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>725441000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>716996000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>724569000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>719748000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>176411000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>201021000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>204133000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>382151000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>417253000.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>412104000.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>405321000.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>438536000.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>437283000.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>466052000.0</v>
       </c>
     </row>
@@ -2888,120 +2958,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>1643043000.0</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>1742000000.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>2104000000.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>2065000000.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>1483000000.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>1568000000.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>1483723000.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>1432430000.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>1498771000.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>1459188000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>1780309000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>1739575000.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>1789714000.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>1824462000.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>1767135000.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>1224386000.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>1169520000.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>1257415000.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>1196430000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>1169728000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>1376757000.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>1328521000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>1332213000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>1291732000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>1233231000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>947485000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>931991000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>883716000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>880607000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>903019000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>344044000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>343262000.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>348141000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>552584000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>552182000.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>532101000.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>525135000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>532661000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>520537000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>548087000.0</v>
       </c>
     </row>
@@ -3012,120 +3085,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>5010619000.0</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>4993407000.0</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>4937791000.0</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>4885637000.0</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>4854814000.0</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>4832707000.0</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>4782916000.0</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>4744316000.0</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>4682900000.0</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>4669926000.0</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>4620817000.0</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>4577300000.0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>4510451000.0</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>4483220000.0</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>4435449000.0</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>4397980000.0</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>4314793000.0</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>4288113000.0</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>4231514000.0</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>3458124000.0</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>3410297000.0</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>3414837000.0</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>3371377000.0</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>3337503000.0</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>3308137000.0</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>2359744000.0</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>2278761000.0</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>2249445000.0</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>2213347000.0</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>2059101000.0</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>1926133000.0</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>1863961000.0</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>1833831000.0</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>1561890000.0</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>1505776000.0</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>1483336000.0</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>1221933000.0</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>1197082000.0</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>1175422000.0</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>1122732000.0</v>
       </c>
     </row>
@@ -3136,7 +3212,7 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.0</v>
+        <v>183000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0.0</v>
@@ -3151,16 +3227,16 @@
         <v>0.0</v>
       </c>
       <c r="G24" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="0" t="n">
         <v>180000.0</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>179000.0</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>179000.0</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>178000.0</v>
+        <v>179000.0</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>178000.0</v>
@@ -3169,19 +3245,19 @@
         <v>178000.0</v>
       </c>
       <c r="M24" s="0" t="n">
+        <v>178000.0</v>
+      </c>
+      <c r="N24" s="0" t="n">
         <v>177000.0</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>176000.0</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>176000.0</v>
       </c>
       <c r="P24" s="0" t="n">
+        <v>176000.0</v>
+      </c>
+      <c r="Q24" s="0" t="n">
         <v>175000.0</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>173000.0</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>173000.0</v>
@@ -3190,66 +3266,69 @@
         <v>173000.0</v>
       </c>
       <c r="T24" s="0" t="n">
+        <v>173000.0</v>
+      </c>
+      <c r="U24" s="0" t="n">
         <v>164000.0</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>163000.0</v>
-      </c>
-      <c r="V24" s="0" t="n">
-        <v>162000.0</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>162000.0</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>161000.0</v>
+        <v>162000.0</v>
       </c>
       <c r="Y24" s="0" t="n">
         <v>161000.0</v>
       </c>
       <c r="Z24" s="0" t="n">
+        <v>161000.0</v>
+      </c>
+      <c r="AA24" s="0" t="n">
         <v>149000.0</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>148000.0</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>147000.0</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>146000.0</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>144000.0</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>142000.0</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>140000.0</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>139000.0</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>126000.0</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>124000.0</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>123000.0</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>116000.0</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>115000.0</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>114000.0</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>112000.0</v>
       </c>
     </row>
@@ -3260,120 +3339,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>-844238000.0</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>-862000000.0</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>-884000000.0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>-1669000000.0</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>-1639000000.0</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>-1721000000.0</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>-1735733000.0</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>-1790769000.0</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>-1753334000.0</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>-1694134000.0</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>-1690475000.0</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>-1677855000.0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>-1661063000.0</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>-1637548000.0</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>-1586156000.0</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>-1573629000.0</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>-1536796000.0</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>-1520506000.0</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>-1573068000.0</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>-1530271000.0</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>-1106711000.0</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>-1021569000.0</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>-1090186000.0</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>-999260000.0</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>-917271000.0</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>-849770000.0</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>-779973000.0</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>-787418000.0</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>-753916000.0</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>-715801000.0</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>-653811000.0</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>-600791000.0</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>-579258000.0</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>-539448000.0</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>-486436000.0</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>-481079000.0</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>-449073000.0</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>-425101000.0</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>-398366000.0</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>-380713000.0</v>
       </c>
     </row>
@@ -3384,120 +3466,123 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>4162010000.0</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>4106000000.0</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>4054000000.0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>3237000000.0</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>3240000000.0</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>3122000000.0</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>3074405000.0</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>2960954000.0</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>2936627000.0</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>2967940000.0</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>2914945000.0</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>2885104000.0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>2807003000.0</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>2808663000.0</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>2813562000.0</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>2795579000.0</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>2769087000.0</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>2766275000.0</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>2645808000.0</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>1917576000.0</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>2290236000.0</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>2400847000.0</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>2292640000.0</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>2356957000.0</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>2425455000.0</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>1527894000.0</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>1508442000.0</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>1461969000.0</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>1460121000.0</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>1341041000.0</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>1276486000.0</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>1258258000.0</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>1250152000.0</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>1015763000.0</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>1015194000.0</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>1000426000.0</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>771950000.0</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>773048000.0</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>774539100.0</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>732305100.0</v>
       </c>
     </row>
@@ -3508,120 +3593,123 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>4162010000.0</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>4106000000.0</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>4054000000.0</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>3237000000.0</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>3240000000.0</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>3122000000.0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>3074405000.0</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>2960954000.0</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>2936627000.0</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>2967940000.0</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>2914945000.0</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>2885104000.0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>2807003000.0</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>2808663000.0</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>2813562000.0</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>2795579000.0</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>2769087000.0</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>2766275000.0</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>2645808000.0</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>1917576000.0</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>2290236000.0</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>2400847000.0</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>2292640000.0</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>2356957000.0</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>2425455000.0</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>1527894000.0</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>1508442000.0</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>1461969000.0</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>1460121000.0</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>1341041000.0</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>1276486000.0</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>1258258000.0</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>1250152000.0</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>1015763000.0</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>1015194000.0</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>1000426000.0</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>771950000.0</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>773048000.0</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>774539000.0</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>732305000.0</v>
       </c>
     </row>
@@ -3632,120 +3720,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>5805053000.0</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>5848020000.0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>6158090000.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>5302110000.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>4722841000.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>4690039000.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>4558128000.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>4393384000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>4435398000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>4427128000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>4695254000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>4624679000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>4596717000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>4633125000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>4580697000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>4019965000.0</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>3938607000.0</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>4023690000.0</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>3842238000.0</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>3087304000.0</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>3666993000.0</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>3729368000.0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>3624853000.0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>3648689000.0</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>3658686000.0</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>2475379000.0</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>2440433000.0</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>2345685000.0</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>2340728000.0</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>2244060000.0</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>1620530000.0</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>1601520000.0</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>1598293000.0</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>1568347000.0</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>1567376000.0</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>1532527000.0</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>1297085000.0</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>1305709000.0</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>1295076000.0</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>1280392000.0</v>
       </c>
     </row>
@@ -3756,120 +3847,123 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>182671000.0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>181741000.0</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>181492000.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>181148000.0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>180762000.0</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>179838000.0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>179604000.0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>179433000.0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>179033000.0</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>178253000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>177903000.0</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>177508000.0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>176653000.0</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>175844000.0</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>175495000.0</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>175249000.0</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>173304000.0</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>172648000.0</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>171697000.0</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>163282000.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>162243000.0</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>161526000.0</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>161226000.0</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>161008000.0</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>160282000.0</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>149094000.0</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>147434000.0</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>147068000.0</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>145738000.0</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>143464000.0</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>142201000.0</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>140050000.0</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>138873000.0</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>125809000.0</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>123790000.0</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>123236000.0</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>115682000.0</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>114790000.0</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>114149800.0</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>111565000.0</v>
       </c>
     </row>
@@ -3880,120 +3974,123 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
+        <v>3559908000.0</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>3492532000.0</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>3430522000.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>2607099000.0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>2600046000.0</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>2468762000.0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>2414517000.0</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>2287283000.0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>2253607000.0</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>2279093000.0</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>2223219000.0</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>2185770000.0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>2100062000.0</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>2094114000.0</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>2085566000.0</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>2059975000.0</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>2025876000.0</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>2015456000.0</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>1887382000.0</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>1151571000.0</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>915964800.0</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>1519812000.0</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>1169305000.0</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>1230704000.0</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>1296167000.0</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>1317058000.0</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>1294235000.0</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>1244666000.0</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>1240466000.0</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>1123636000.0</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>1056437000.0</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>1034849000.0</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>1023161000.0</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>801240100.0</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>798027000.0</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>780616000.0</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>549492900.0</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>541228000.0</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>622216100.0</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>577514000.0</v>
       </c>
     </row>
@@ -4004,120 +4101,123 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
+        <v>-11364000.0</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>67000000.0</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>-1000000.0</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>121000000.0</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>55000000.0</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>156000000.0</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>122824000.0</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>108062000.0</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>-60088000.0</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>-253891000.0</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>-243027000.0</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>-171450000.0</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>-199797000.0</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>-221498000.0</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>-91063000.0</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>-51571000.0</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>12876900.0</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>-106438000.0</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="T31" s="0" t="n">
         <v>-359210000.0</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="U31" s="0" t="n">
         <v>166818000.0</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>211156000.0</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="W31" s="0" t="n">
         <v>69667000.0</v>
       </c>
-      <c r="W31" s="0" t="n">
+      <c r="X31" s="0" t="n">
         <v>49463000.0</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="Y31" s="0" t="n">
         <v>-20061000.0</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>-353198000.0</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="AA31" s="0" t="n">
         <v>-302290000.0</v>
       </c>
-      <c r="AA31" s="0" t="n">
+      <c r="AB31" s="0" t="n">
         <v>-9489000.0</v>
       </c>
-      <c r="AB31" s="0" t="n">
+      <c r="AC31" s="0" t="n">
         <v>-185746000.0</v>
       </c>
-      <c r="AC31" s="0" t="n">
+      <c r="AD31" s="0" t="n">
         <v>-226062000.0</v>
       </c>
-      <c r="AD31" s="0" t="n">
+      <c r="AE31" s="0" t="n">
         <v>-129157000.0</v>
       </c>
-      <c r="AE31" s="0" t="n">
+      <c r="AF31" s="0" t="n">
         <v>-301341000.0</v>
       </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AG31" s="0" t="n">
         <v>-290739000.0</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AH31" s="0" t="n">
         <v>-292033000.0</v>
       </c>
-      <c r="AH31" s="0" t="n">
+      <c r="AI31" s="0" t="n">
         <v>-99581000.0</v>
       </c>
-      <c r="AI31" s="0" t="n">
+      <c r="AJ31" s="0" t="n">
         <v>-78154000.0</v>
       </c>
-      <c r="AJ31" s="0" t="n">
+      <c r="AK31" s="0" t="n">
         <v>-54281000.0</v>
       </c>
-      <c r="AK31" s="0" t="n">
+      <c r="AL31" s="0" t="n">
         <v>115348000.0</v>
       </c>
-      <c r="AL31" s="0" t="n">
+      <c r="AM31" s="0" t="n">
         <v>153237000.0</v>
       </c>
-      <c r="AM31" s="0" t="n">
+      <c r="AN31" s="0" t="n">
         <v>123965000.0</v>
       </c>
-      <c r="AN31" s="0" t="n">
+      <c r="AO31" s="0" t="n">
         <v>118600000.0</v>
       </c>
     </row>
@@ -4128,120 +4228,123 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
+        <v>1076127000.0</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>1132000000.0</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>1505000000.0</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>1501000000.0</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>913000000.0</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="G32" s="0" t="n">
         <v>910000000.0</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>843616000.0</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>839165000.0</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>834766000.0</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>830417000.0</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>1200349000.0</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>1191623000.0</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>1182998000.0</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>1174470000.0</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>1166036000.0</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>676205000.0</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>690932000.0</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="S32" s="0" t="n">
         <v>683239000.0</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="T32" s="0" t="n">
         <v>675638000.0</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="U32" s="0" t="n">
         <v>670105000.0</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="V32" s="0" t="n">
         <v>668009000.0</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="W32" s="0" t="n">
         <v>662286000.0</v>
       </c>
-      <c r="W32" s="0" t="n">
+      <c r="X32" s="0" t="n">
         <v>667793000.0</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="Y32" s="0" t="n">
         <v>661492000.0</v>
       </c>
-      <c r="Y32" s="0" t="n">
+      <c r="Z32" s="0" t="n">
         <v>655491000.0</v>
       </c>
-      <c r="Z32" s="0" t="n">
+      <c r="AA32" s="0" t="n">
         <v>642902000.0</v>
       </c>
-      <c r="AA32" s="0" t="n">
+      <c r="AB32" s="0" t="n">
         <v>656884000.0</v>
       </c>
-      <c r="AB32" s="0" t="n">
+      <c r="AC32" s="0" t="n">
         <v>650872000.0</v>
       </c>
-      <c r="AC32" s="0" t="n">
+      <c r="AD32" s="0" t="n">
         <v>661419000.0</v>
       </c>
-      <c r="AD32" s="0" t="n">
+      <c r="AE32" s="0" t="n">
         <v>655566000.0</v>
       </c>
-      <c r="AE32" s="0" t="n">
+      <c r="AF32" s="0" t="n">
         <v>78310000.0</v>
       </c>
-      <c r="AF32" s="0" t="n">
+      <c r="AG32" s="0" t="n">
         <v>109822000.0</v>
       </c>
-      <c r="AG32" s="0" t="n">
+      <c r="AH32" s="0" t="n">
         <v>109849000.0</v>
       </c>
-      <c r="AH32" s="0" t="n">
+      <c r="AI32" s="0" t="n">
         <v>348224000.0</v>
       </c>
-      <c r="AI32" s="0" t="n">
+      <c r="AJ32" s="0" t="n">
         <v>348301000.0</v>
       </c>
-      <c r="AJ32" s="0" t="n">
+      <c r="AK32" s="0" t="n">
         <v>348305000.0</v>
       </c>
-      <c r="AK32" s="0" t="n">
+      <c r="AL32" s="0" t="n">
         <v>348327000.0</v>
       </c>
-      <c r="AL32" s="0" t="n">
+      <c r="AM32" s="0" t="n">
         <v>348329000.0</v>
       </c>
-      <c r="AM32" s="0" t="n">
+      <c r="AN32" s="0" t="n">
         <v>348339000.0</v>
       </c>
-      <c r="AN32" s="0" t="n">
+      <c r="AO32" s="0" t="n">
         <v>377520000.0</v>
       </c>
     </row>
